--- a/biology/Médecine/Déficit_en_fructose-1,6-diphosphatase/Déficit_en_fructose-1,6-diphosphatase.xlsx
+++ b/biology/Médecine/Déficit_en_fructose-1,6-diphosphatase/Déficit_en_fructose-1,6-diphosphatase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_fructose-1,6-diphosphatase</t>
+          <t>Déficit_en_fructose-1,6-diphosphatase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en fructose-1,6-diphosphatase, l’une des enzymes de la néoglucogenèse, est une anomalie métabolique très rare dont une centaine de cas ont été rapportés dans le monde.
 Il s'agit d'une maladie génétique autosomique récessive. Elle s'apparente à la fructosémie héréditaire mais n'a pas les mêmes causes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_fructose-1,6-diphosphatase</t>
+          <t>Déficit_en_fructose-1,6-diphosphatase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Manifestations cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en fructose-1,6-biphosphatase est un trouble sévère de la néoglucogenèse à l’origine d’accès hypoglycémiques aigus survenant au jeûne et mettant en jeu le pronostic vital chez des nouveau-nés et nourrissons. La symptomatologie débute soit dès la période néonatale soit plus tardivement mais en général avant l’âge de 2 ans.
 Chez le nouveau-né, malaise hypoglycémique et accès d’acidose métabolique sont les symptômes révélateurs les plus habituels. Les accès d’hypoglycémie se caractérisent par :
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_fructose-1,6-diphosphatase</t>
+          <t>Déficit_en_fructose-1,6-diphosphatase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Symptômes et diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une très grande majorité des cas, les enfants sont malades à la naissance mais ne présentent pas de symptômes jusqu'à ce que l'alimentation devienne variée.
 Les signes cliniques qui doivent faire suspecter cette maladie sont une hypoglycémie (hypotonie, vomissements, tremblements...) déclenchée par un jeûne prolongé ou une infection fébrile intercurrente.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_fructose-1,6-diphosphatase</t>
+          <t>Déficit_en_fructose-1,6-diphosphatase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en fructose-1,6-diphosphatase étant une maladie génétique, il n'y a pas, à l'heure actuelle, de traitement permettant de le soigner.
 Par contre on peut prévenir assez efficacement les épisodes de décompensation de la maladie en instaurant un régime strict d'éviction du fructose et de tous les composés métabolisés en fructose (saccharose, sorbitol, glycérol, mannitol, maltitol, isomalt, polydextrose).
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_fructose-1,6-diphosphatase</t>
+          <t>Déficit_en_fructose-1,6-diphosphatase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Médicaments</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éviction de fruits de l'alimentation entraîne une carence en vitamine C. Par conséquent, il est nécessaire d'introduire une supplémentation de cette vitamine (à raison de 500 mg par semaine en 1 prise). La plupart des comprimés de vitamine C disponibles en pharmacie étant sucrés, des gélules devront être préparées en laboratoire.
 Un apport régulier de bicarbonate de sodium (1 g 3 fois par jour) peut permettre de prévenir une perte en bicarbonate qui accentuerait une acidose.
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_fructose-1,6-diphosphatase</t>
+          <t>Déficit_en_fructose-1,6-diphosphatase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fois le diagnostic établi et la tolérance au jeûne déterminée, l’évolution est rapidement favorable, l’hépatomégalie régresse, croissance et développement psychomoteur sont normaux. Les rechutes lors d’infections fébriles sont aisément prévenues ou contrôlées par le glucose, seul ou en association avec du bicarbonate.
 Si des poussées aiguës d'acidose métabolique avec hypoglycémie surviennent malgré la mise en place du régime, le traitement consiste en la correction des hypoglycémies (et de l'acidose) par perfusion I.V. de glucose (solution à 10 % à raison d'un apport de 7 mg/kg/min). Cet apport est rapidement efficace.
